--- a/FlOpEDT/media/configuration/empty_planif_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_planif_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -66,6 +66,9 @@
     <t xml:space="preserve">Si aucun prof n’est indiqué, c’est un cours supposé en autonomie</t>
   </si>
   <si>
+    <t xml:space="preserve">Voici la liste des profs possibles :</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type de salle </t>
   </si>
   <si>
@@ -73,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">Si les cours doivent avoir des types de salle différents, faites plusieurs lignes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voici la liste des types de salle possibles :</t>
   </si>
   <si>
     <t xml:space="preserve">Mode de remplissage des cours</t>
@@ -139,10 +145,7 @@
     <t xml:space="preserve">Après le premier cours de type « type » de la semaine</t>
   </si>
   <si>
-    <t xml:space="preserve">(Ex : ATD, ACM, ATP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NB : pour que le ATD fonctionne, il faut que le TD soit au dessus dans le tableau !</t>
+    <t xml:space="preserve">(Ex : ATD, ACM, ATP) NB : pour que le ATD fonctionne, il faut que le TD soit au dessus dans le tableau ! </t>
   </si>
   <si>
     <r>
@@ -554,7 +557,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -687,7 +690,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -782,7 +789,7 @@
   </sheetPr>
   <dimension ref="A1:DG9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2418,16 +2425,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="2" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="135" min="2" style="0" width="6.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="136" style="0" width="11.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2498,11 +2506,9 @@
       <c r="I5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -2513,114 +2519,115 @@
       <c r="I6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="30" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="30"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29"/>
+      <c r="B16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="30"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29"/>
+      <c r="B18" s="32" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -2631,11 +2638,9 @@
       <c r="I18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>29</v>
+      <c r="A19" s="29"/>
+      <c r="B19" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -2645,38 +2650,25 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-    </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="A21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
+      <c r="A22" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -2686,12 +2678,12 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -2702,8 +2694,74 @@
       <c r="I23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>36</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="34" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2743,10 +2801,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="34" t="s">
         <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="n">
         <v>35</v>
@@ -3078,56 +3136,56 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/FlOpEDT/media/configuration/empty_planif_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_planif_file.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Rules" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="empty_recap" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Assignation" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -211,6 +212,12 @@
   <si>
     <t xml:space="preserve">TEST</t>
   </si>
+  <si>
+    <t xml:space="preserve">Profs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,8 +387,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +488,26 @@
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003300"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -531,6 +571,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -557,7 +639,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -707,6 +789,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,7 +874,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CC66"/>
       <rgbColor rgb="FF99CC00"/>
@@ -2427,7 +2541,7 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -3196,4 +3310,213 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+    </row>
+    <row r="2" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="n">
+        <f aca="false">SUM(C3:O3)-COUNTBLANK(C2:O2)+COUNTBLANK(C3:O3)</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="n">
+        <f aca="false">SUM(C5:O5)-COUNTBLANK(C4:O4)+COUNTBLANK(C5:O5)</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="n">
+        <f aca="false">SUM(C7:O7)-COUNTBLANK(C6:O6)+COUNTBLANK(C7:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="41"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="n">
+        <f aca="false">SUM(C9:O9)-COUNTBLANK(C8:O8)+COUNTBLANK(C9:O9)</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:O1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/FlOpEDT/media/configuration/empty_planif_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_planif_file.xlsx
@@ -11,7 +11,7 @@
     <sheet name="empty" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Rules" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="empty_recap" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Assignation" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ModuleTutorsAssignation" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -3317,15 +3317,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3507,6 +3510,1761 @@
       <c r="N9" s="44"/>
       <c r="O9" s="45"/>
     </row>
+    <row r="10" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="n">
+        <f aca="false">SUM(C11:O11)-COUNTBLANK(C10:O10)+COUNTBLANK(C11:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="n">
+        <f aca="false">SUM(C13:O13)-COUNTBLANK(C12:O12)+COUNTBLANK(C13:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="45"/>
+    </row>
+    <row r="14" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="n">
+        <f aca="false">SUM(C15:O15)-COUNTBLANK(C14:O14)+COUNTBLANK(C15:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="45"/>
+    </row>
+    <row r="16" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="41"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42" t="n">
+        <f aca="false">SUM(C17:O17)-COUNTBLANK(C16:O16)+COUNTBLANK(C17:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="45"/>
+    </row>
+    <row r="18" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42" t="n">
+        <f aca="false">SUM(C19:O19)-COUNTBLANK(C18:O18)+COUNTBLANK(C19:O19)</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
+    </row>
+    <row r="20" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="41"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42" t="n">
+        <f aca="false">SUM(C21:O21)-COUNTBLANK(C20:O20)+COUNTBLANK(C21:O21)</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
+    </row>
+    <row r="22" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42" t="n">
+        <f aca="false">SUM(C23:O23)-COUNTBLANK(C22:O22)+COUNTBLANK(C23:O23)</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
+    </row>
+    <row r="24" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42" t="n">
+        <f aca="false">SUM(C25:O25)-COUNTBLANK(C24:O24)+COUNTBLANK(C25:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="45"/>
+    </row>
+    <row r="26" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="42" t="n">
+        <f aca="false">SUM(C27:O27)-COUNTBLANK(C26:O26)+COUNTBLANK(C27:O27)</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
+    </row>
+    <row r="28" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="41"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="42" t="n">
+        <f aca="false">SUM(C29:O29)-COUNTBLANK(C28:O28)+COUNTBLANK(C29:O29)</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="45"/>
+    </row>
+    <row r="30" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="41"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42" t="n">
+        <f aca="false">SUM(C31:O31)-COUNTBLANK(C30:O30)+COUNTBLANK(C31:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="45"/>
+    </row>
+    <row r="32" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="42" t="n">
+        <f aca="false">SUM(C33:O33)-COUNTBLANK(C32:O32)+COUNTBLANK(C33:O33)</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="45"/>
+    </row>
+    <row r="34" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="41"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="42" t="n">
+        <f aca="false">SUM(C35:O35)-COUNTBLANK(C34:O34)+COUNTBLANK(C35:O35)</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="45"/>
+    </row>
+    <row r="36" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="41"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="42" t="n">
+        <f aca="false">SUM(C37:O37)-COUNTBLANK(C36:O36)+COUNTBLANK(C37:O37)</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="45"/>
+    </row>
+    <row r="38" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="41"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="42" t="n">
+        <f aca="false">SUM(C39:O39)-COUNTBLANK(C38:O38)+COUNTBLANK(C39:O39)</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
+    </row>
+    <row r="40" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="41"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="42" t="n">
+        <f aca="false">SUM(C41:O41)-COUNTBLANK(C40:O40)+COUNTBLANK(C41:O41)</f>
+        <v>0</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="45"/>
+    </row>
+    <row r="42" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="41"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="42" t="n">
+        <f aca="false">SUM(C43:O43)-COUNTBLANK(C42:O42)+COUNTBLANK(C43:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="45"/>
+    </row>
+    <row r="44" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="41"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="42" t="n">
+        <f aca="false">SUM(C45:O45)-COUNTBLANK(C44:O44)+COUNTBLANK(C45:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="45"/>
+    </row>
+    <row r="46" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="41"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="42" t="n">
+        <f aca="false">SUM(C47:O47)-COUNTBLANK(C46:O46)+COUNTBLANK(C47:O47)</f>
+        <v>0</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
+    </row>
+    <row r="48" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="41"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="42" t="n">
+        <f aca="false">SUM(C49:O49)-COUNTBLANK(C48:O48)+COUNTBLANK(C49:O49)</f>
+        <v>0</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="45"/>
+    </row>
+    <row r="50" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="41"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="42" t="n">
+        <f aca="false">SUM(C51:O51)-COUNTBLANK(C50:O50)+COUNTBLANK(C51:O51)</f>
+        <v>0</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="45"/>
+    </row>
+    <row r="52" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="41"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="42" t="n">
+        <f aca="false">SUM(C53:O53)-COUNTBLANK(C52:O52)+COUNTBLANK(C53:O53)</f>
+        <v>0</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="45"/>
+    </row>
+    <row r="54" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="41"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="42" t="n">
+        <f aca="false">SUM(C55:O55)-COUNTBLANK(C54:O54)+COUNTBLANK(C55:O55)</f>
+        <v>0</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="45"/>
+    </row>
+    <row r="56" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="41"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="42" t="n">
+        <f aca="false">SUM(C57:O57)-COUNTBLANK(C56:O56)+COUNTBLANK(C57:O57)</f>
+        <v>0</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="45"/>
+    </row>
+    <row r="58" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="41"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="42" t="n">
+        <f aca="false">SUM(C59:O59)-COUNTBLANK(C58:O58)+COUNTBLANK(C59:O59)</f>
+        <v>0</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="45"/>
+    </row>
+    <row r="60" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="39"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="41"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="42" t="n">
+        <f aca="false">SUM(C61:O61)-COUNTBLANK(C60:O60)+COUNTBLANK(C61:O61)</f>
+        <v>0</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="45"/>
+    </row>
+    <row r="62" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="39"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="41"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="42" t="n">
+        <f aca="false">SUM(C63:O63)-COUNTBLANK(C62:O62)+COUNTBLANK(C63:O63)</f>
+        <v>0</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="45"/>
+    </row>
+    <row r="64" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="39"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="41"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="42" t="n">
+        <f aca="false">SUM(C65:O65)-COUNTBLANK(C64:O64)+COUNTBLANK(C65:O65)</f>
+        <v>0</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="45"/>
+    </row>
+    <row r="66" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="41"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="42" t="n">
+        <f aca="false">SUM(C67:O67)-COUNTBLANK(C66:O66)+COUNTBLANK(C67:O67)</f>
+        <v>0</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="45"/>
+    </row>
+    <row r="68" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="39"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="41"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="42" t="n">
+        <f aca="false">SUM(C69:O69)-COUNTBLANK(C68:O68)+COUNTBLANK(C69:O69)</f>
+        <v>0</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="45"/>
+    </row>
+    <row r="70" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="39"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="41"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="42" t="n">
+        <f aca="false">SUM(C71:O71)-COUNTBLANK(C70:O70)+COUNTBLANK(C71:O71)</f>
+        <v>0</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="45"/>
+    </row>
+    <row r="72" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="41"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="42" t="n">
+        <f aca="false">SUM(C73:O73)-COUNTBLANK(C72:O72)+COUNTBLANK(C73:O73)</f>
+        <v>0</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="45"/>
+    </row>
+    <row r="74" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="39"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="41"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="42" t="n">
+        <f aca="false">SUM(C75:O75)-COUNTBLANK(C74:O74)+COUNTBLANK(C75:O75)</f>
+        <v>0</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="45"/>
+    </row>
+    <row r="76" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="41"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="42" t="n">
+        <f aca="false">SUM(C77:O77)-COUNTBLANK(C76:O76)+COUNTBLANK(C77:O77)</f>
+        <v>0</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="45"/>
+    </row>
+    <row r="78" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="41"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="42" t="n">
+        <f aca="false">SUM(C79:O79)-COUNTBLANK(C78:O78)+COUNTBLANK(C79:O79)</f>
+        <v>0</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="45"/>
+    </row>
+    <row r="80" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="41"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="42" t="n">
+        <f aca="false">SUM(C81:O81)-COUNTBLANK(C80:O80)+COUNTBLANK(C81:O81)</f>
+        <v>0</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="45"/>
+    </row>
+    <row r="82" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="39"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="41"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="42" t="n">
+        <f aca="false">SUM(C83:O83)-COUNTBLANK(C82:O82)+COUNTBLANK(C83:O83)</f>
+        <v>0</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="45"/>
+    </row>
+    <row r="84" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="39"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="41"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="42" t="n">
+        <f aca="false">SUM(C85:O85)-COUNTBLANK(C84:O84)+COUNTBLANK(C85:O85)</f>
+        <v>0</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="45"/>
+    </row>
+    <row r="86" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="39"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="41"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="42" t="n">
+        <f aca="false">SUM(C87:O87)-COUNTBLANK(C86:O86)+COUNTBLANK(C87:O87)</f>
+        <v>0</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="45"/>
+    </row>
+    <row r="88" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="41"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="42" t="n">
+        <f aca="false">SUM(C89:O89)-COUNTBLANK(C88:O88)+COUNTBLANK(C89:O89)</f>
+        <v>0</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="45"/>
+    </row>
+    <row r="90" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="39"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
+      <c r="O90" s="41"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="42" t="n">
+        <f aca="false">SUM(C91:O91)-COUNTBLANK(C90:O90)+COUNTBLANK(C91:O91)</f>
+        <v>0</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="45"/>
+    </row>
+    <row r="92" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="39"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+      <c r="O92" s="41"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="42" t="n">
+        <f aca="false">SUM(C93:O93)-COUNTBLANK(C92:O92)+COUNTBLANK(C93:O93)</f>
+        <v>0</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="45"/>
+    </row>
+    <row r="94" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="39"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="41"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="42" t="n">
+        <f aca="false">SUM(C95:O95)-COUNTBLANK(C94:O94)+COUNTBLANK(C95:O95)</f>
+        <v>0</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="45"/>
+    </row>
+    <row r="96" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="39"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="41"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="42" t="n">
+        <f aca="false">SUM(C97:O97)-COUNTBLANK(C96:O96)+COUNTBLANK(C97:O97)</f>
+        <v>0</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="45"/>
+    </row>
+    <row r="98" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="39"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
+      <c r="O98" s="41"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="42" t="n">
+        <f aca="false">SUM(C99:O99)-COUNTBLANK(C98:O98)+COUNTBLANK(C99:O99)</f>
+        <v>0</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="44"/>
+      <c r="O99" s="45"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:O1"/>

--- a/FlOpEDT/media/configuration/empty_planif_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_planif_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -205,6 +205,21 @@
   </si>
   <si>
     <t xml:space="preserve">(Ex : A3TD, A2CM, A1TP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seulement pour le Visio-Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le cours ne peut pas se faire en distanciel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le cours doit se faire en distanciel</t>
   </si>
   <si>
     <t xml:space="preserve">Enseignant</t>
@@ -2539,10 +2554,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2876,6 +2891,27 @@
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="34" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2915,10 +2951,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="n">
         <v>35</v>
@@ -3319,15 +3355,15 @@
   </sheetPr>
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="0" width="16.07"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -3339,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -3377,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -3416,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -3455,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -3494,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -3533,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -3572,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -3611,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -3650,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
@@ -3689,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -3728,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
@@ -3767,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -3806,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
@@ -3845,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
@@ -3884,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
@@ -3923,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -3962,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
@@ -4001,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -4040,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
@@ -4079,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
@@ -4118,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
@@ -4157,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
@@ -4196,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
@@ -4235,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
@@ -4274,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
@@ -4313,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C51" s="44"/>
       <c r="D51" s="44"/>
@@ -4352,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
@@ -4391,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -4430,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
@@ -4469,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
@@ -4508,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C61" s="44"/>
       <c r="D61" s="44"/>
@@ -4547,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C63" s="44"/>
       <c r="D63" s="44"/>
@@ -4586,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
@@ -4625,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
@@ -4664,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
@@ -4703,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C71" s="44"/>
       <c r="D71" s="44"/>
@@ -4742,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
@@ -4781,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
@@ -4820,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
@@ -4859,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
@@ -4898,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
@@ -4937,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
@@ -4976,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
@@ -5015,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
@@ -5054,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
@@ -5093,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C91" s="44"/>
       <c r="D91" s="44"/>
@@ -5132,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
@@ -5171,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
@@ -5210,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
@@ -5249,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>

--- a/FlOpEDT/media/configuration/empty_planif_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_planif_file.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mettre le nombre de cours fait pour les groupes déclarés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attention, s’il y a 2 groupes, un « 6 » voudra dire 3 cours pour chaque groupe</t>
   </si>
   <si>
     <t xml:space="preserve">Les remarques sur cette ligne vaudront uniquement pour les cours de ces groupes</t>
@@ -207,7 +204,7 @@
     <t xml:space="preserve">(Ex : A3TD, A2CM, A1TP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Seulement pour le Visio-Mode</t>
+    <t xml:space="preserve">Uniquement pour le Visio-Mode</t>
   </si>
   <si>
     <t xml:space="preserve">P</t>
@@ -654,7 +651,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -792,6 +789,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2554,10 +2555,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2766,38 +2767,40 @@
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
@@ -2809,10 +2812,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -2823,10 +2826,8 @@
       <c r="I23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="31"/>
@@ -2836,12 +2837,16 @@
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29"/>
-      <c r="B25" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="B25" s="32"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
@@ -2856,9 +2861,13 @@
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -2866,52 +2875,31 @@
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="30" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="34" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
         <v>38</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2951,10 +2939,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="C1" s="3" t="n">
         <v>35</v>
@@ -3286,56 +3274,56 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3368,1938 +3356,1938 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="n">
+        <f aca="false">SUM(C3:O3)-COUNTBLANK(C2:O2)+COUNTBLANK(C3:O3)</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-    </row>
-    <row r="2" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="n">
-        <f aca="false">SUM(C3:O3)-COUNTBLANK(C2:O2)+COUNTBLANK(C3:O3)</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="n">
+      <c r="A5" s="43" t="n">
         <f aca="false">SUM(C5:O5)-COUNTBLANK(C4:O4)+COUNTBLANK(C5:O5)</f>
         <v>0</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
+      <c r="B5" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="n">
+      <c r="A7" s="43" t="n">
         <f aca="false">SUM(C7:O7)-COUNTBLANK(C6:O6)+COUNTBLANK(C7:O7)</f>
         <v>0</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
+      <c r="B7" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="41"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="n">
+      <c r="A9" s="43" t="n">
         <f aca="false">SUM(C9:O9)-COUNTBLANK(C8:O8)+COUNTBLANK(C9:O9)</f>
         <v>0</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="B9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="46"/>
     </row>
     <row r="10" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="n">
+      <c r="A11" s="43" t="n">
         <f aca="false">SUM(C11:O11)-COUNTBLANK(C10:O10)+COUNTBLANK(C11:O11)</f>
         <v>0</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
+      <c r="B11" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="n">
+      <c r="A13" s="43" t="n">
         <f aca="false">SUM(C13:O13)-COUNTBLANK(C12:O12)+COUNTBLANK(C13:O13)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
+      <c r="B13" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="n">
+      <c r="A15" s="43" t="n">
         <f aca="false">SUM(C15:O15)-COUNTBLANK(C14:O14)+COUNTBLANK(C15:O15)</f>
         <v>0</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
+      <c r="B15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="n">
+      <c r="A17" s="43" t="n">
         <f aca="false">SUM(C17:O17)-COUNTBLANK(C16:O16)+COUNTBLANK(C17:O17)</f>
         <v>0</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
+      <c r="B17" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="n">
+      <c r="A19" s="43" t="n">
         <f aca="false">SUM(C19:O19)-COUNTBLANK(C18:O18)+COUNTBLANK(C19:O19)</f>
         <v>0</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
+      <c r="B19" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="n">
+      <c r="A21" s="43" t="n">
         <f aca="false">SUM(C21:O21)-COUNTBLANK(C20:O20)+COUNTBLANK(C21:O21)</f>
         <v>0</v>
       </c>
-      <c r="B21" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
+      <c r="B21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
     </row>
     <row r="22" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="n">
+      <c r="A23" s="43" t="n">
         <f aca="false">SUM(C23:O23)-COUNTBLANK(C22:O22)+COUNTBLANK(C23:O23)</f>
         <v>0</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
+      <c r="B23" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
     </row>
     <row r="24" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="n">
+      <c r="A25" s="43" t="n">
         <f aca="false">SUM(C25:O25)-COUNTBLANK(C24:O24)+COUNTBLANK(C25:O25)</f>
         <v>0</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
+      <c r="B25" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="42" t="n">
+      <c r="A27" s="43" t="n">
         <f aca="false">SUM(C27:O27)-COUNTBLANK(C26:O26)+COUNTBLANK(C27:O27)</f>
         <v>0</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
+      <c r="B27" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="42"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="42" t="n">
+      <c r="A29" s="43" t="n">
         <f aca="false">SUM(C29:O29)-COUNTBLANK(C28:O28)+COUNTBLANK(C29:O29)</f>
         <v>0</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45"/>
+      <c r="B29" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
     </row>
     <row r="30" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="41"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="42"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="42" t="n">
+      <c r="A31" s="43" t="n">
         <f aca="false">SUM(C31:O31)-COUNTBLANK(C30:O30)+COUNTBLANK(C31:O31)</f>
         <v>0</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="45"/>
+      <c r="B31" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="41"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="42" t="n">
+      <c r="A33" s="43" t="n">
         <f aca="false">SUM(C33:O33)-COUNTBLANK(C32:O32)+COUNTBLANK(C33:O33)</f>
         <v>0</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
+      <c r="B33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="41"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="42"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="42" t="n">
+      <c r="A35" s="43" t="n">
         <f aca="false">SUM(C35:O35)-COUNTBLANK(C34:O34)+COUNTBLANK(C35:O35)</f>
         <v>0</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
+      <c r="B35" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="46"/>
     </row>
     <row r="36" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="41"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="42"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="42" t="n">
+      <c r="A37" s="43" t="n">
         <f aca="false">SUM(C37:O37)-COUNTBLANK(C36:O36)+COUNTBLANK(C37:O37)</f>
         <v>0</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="45"/>
+      <c r="B37" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="46"/>
     </row>
     <row r="38" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="41"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="42" t="n">
+      <c r="A39" s="43" t="n">
         <f aca="false">SUM(C39:O39)-COUNTBLANK(C38:O38)+COUNTBLANK(C39:O39)</f>
         <v>0</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="45"/>
+      <c r="B39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="46"/>
     </row>
     <row r="40" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="41"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="42"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="42" t="n">
+      <c r="A41" s="43" t="n">
         <f aca="false">SUM(C41:O41)-COUNTBLANK(C40:O40)+COUNTBLANK(C41:O41)</f>
         <v>0</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="45"/>
+      <c r="B41" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="46"/>
     </row>
     <row r="42" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="39"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="41"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="42"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="42" t="n">
+      <c r="A43" s="43" t="n">
         <f aca="false">SUM(C43:O43)-COUNTBLANK(C42:O42)+COUNTBLANK(C43:O43)</f>
         <v>0</v>
       </c>
-      <c r="B43" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="45"/>
+      <c r="B43" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="46"/>
     </row>
     <row r="44" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="41"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="42" t="n">
+      <c r="A45" s="43" t="n">
         <f aca="false">SUM(C45:O45)-COUNTBLANK(C44:O44)+COUNTBLANK(C45:O45)</f>
         <v>0</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45"/>
+      <c r="B45" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="46"/>
     </row>
     <row r="46" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="41"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="42" t="n">
+      <c r="A47" s="43" t="n">
         <f aca="false">SUM(C47:O47)-COUNTBLANK(C46:O46)+COUNTBLANK(C47:O47)</f>
         <v>0</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
+      <c r="B47" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="46"/>
     </row>
     <row r="48" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="39"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="41"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="42" t="n">
+      <c r="A49" s="43" t="n">
         <f aca="false">SUM(C49:O49)-COUNTBLANK(C48:O48)+COUNTBLANK(C49:O49)</f>
         <v>0</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="45"/>
+      <c r="B49" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="46"/>
     </row>
     <row r="50" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="41"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="42" t="n">
+      <c r="A51" s="43" t="n">
         <f aca="false">SUM(C51:O51)-COUNTBLANK(C50:O50)+COUNTBLANK(C51:O51)</f>
         <v>0</v>
       </c>
-      <c r="B51" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="45"/>
+      <c r="B51" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="46"/>
     </row>
     <row r="52" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="41"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="42"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="42" t="n">
+      <c r="A53" s="43" t="n">
         <f aca="false">SUM(C53:O53)-COUNTBLANK(C52:O52)+COUNTBLANK(C53:O53)</f>
         <v>0</v>
       </c>
-      <c r="B53" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="45"/>
+      <c r="B53" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="46"/>
     </row>
     <row r="54" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="41"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="42" t="n">
+      <c r="A55" s="43" t="n">
         <f aca="false">SUM(C55:O55)-COUNTBLANK(C54:O54)+COUNTBLANK(C55:O55)</f>
         <v>0</v>
       </c>
-      <c r="B55" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="45"/>
+      <c r="B55" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="46"/>
     </row>
     <row r="56" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="41"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="42"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="42" t="n">
+      <c r="A57" s="43" t="n">
         <f aca="false">SUM(C57:O57)-COUNTBLANK(C56:O56)+COUNTBLANK(C57:O57)</f>
         <v>0</v>
       </c>
-      <c r="B57" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="44"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="45"/>
+      <c r="B57" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="46"/>
     </row>
     <row r="58" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="39"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="41"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="42"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="42" t="n">
+      <c r="A59" s="43" t="n">
         <f aca="false">SUM(C59:O59)-COUNTBLANK(C58:O58)+COUNTBLANK(C59:O59)</f>
         <v>0</v>
       </c>
-      <c r="B59" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="45"/>
+      <c r="B59" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="46"/>
     </row>
     <row r="60" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="39"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="41"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="42"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="42" t="n">
+      <c r="A61" s="43" t="n">
         <f aca="false">SUM(C61:O61)-COUNTBLANK(C60:O60)+COUNTBLANK(C61:O61)</f>
         <v>0</v>
       </c>
-      <c r="B61" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="45"/>
+      <c r="B61" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="46"/>
     </row>
     <row r="62" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="39"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="41"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="42"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="42" t="n">
+      <c r="A63" s="43" t="n">
         <f aca="false">SUM(C63:O63)-COUNTBLANK(C62:O62)+COUNTBLANK(C63:O63)</f>
         <v>0</v>
       </c>
-      <c r="B63" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="45"/>
+      <c r="B63" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="46"/>
     </row>
     <row r="64" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="41"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="42"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="42" t="n">
+      <c r="A65" s="43" t="n">
         <f aca="false">SUM(C65:O65)-COUNTBLANK(C64:O64)+COUNTBLANK(C65:O65)</f>
         <v>0</v>
       </c>
-      <c r="B65" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="45"/>
+      <c r="B65" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="46"/>
     </row>
     <row r="66" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="41"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="42" t="n">
+      <c r="A67" s="43" t="n">
         <f aca="false">SUM(C67:O67)-COUNTBLANK(C66:O66)+COUNTBLANK(C67:O67)</f>
         <v>0</v>
       </c>
-      <c r="B67" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="45"/>
+      <c r="B67" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="46"/>
     </row>
     <row r="68" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="39"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="41"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="42"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="42" t="n">
+      <c r="A69" s="43" t="n">
         <f aca="false">SUM(C69:O69)-COUNTBLANK(C68:O68)+COUNTBLANK(C69:O69)</f>
         <v>0</v>
       </c>
-      <c r="B69" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="45"/>
+      <c r="B69" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="46"/>
     </row>
     <row r="70" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="41"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="42"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="42" t="n">
+      <c r="A71" s="43" t="n">
         <f aca="false">SUM(C71:O71)-COUNTBLANK(C70:O70)+COUNTBLANK(C71:O71)</f>
         <v>0</v>
       </c>
-      <c r="B71" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="45"/>
+      <c r="B71" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="46"/>
     </row>
     <row r="72" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="39"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="41"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="42"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="42" t="n">
+      <c r="A73" s="43" t="n">
         <f aca="false">SUM(C73:O73)-COUNTBLANK(C72:O72)+COUNTBLANK(C73:O73)</f>
         <v>0</v>
       </c>
-      <c r="B73" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="45"/>
+      <c r="B73" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="46"/>
     </row>
     <row r="74" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="39"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="41"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="42"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="42" t="n">
+      <c r="A75" s="43" t="n">
         <f aca="false">SUM(C75:O75)-COUNTBLANK(C74:O74)+COUNTBLANK(C75:O75)</f>
         <v>0</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="45"/>
+      <c r="B75" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="46"/>
     </row>
     <row r="76" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="39"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="41"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="42"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42" t="n">
+      <c r="A77" s="43" t="n">
         <f aca="false">SUM(C77:O77)-COUNTBLANK(C76:O76)+COUNTBLANK(C77:O77)</f>
         <v>0</v>
       </c>
-      <c r="B77" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="45"/>
+      <c r="B77" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="46"/>
     </row>
     <row r="78" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="41"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="42"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="42" t="n">
+      <c r="A79" s="43" t="n">
         <f aca="false">SUM(C79:O79)-COUNTBLANK(C78:O78)+COUNTBLANK(C79:O79)</f>
         <v>0</v>
       </c>
-      <c r="B79" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="45"/>
+      <c r="B79" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="46"/>
     </row>
     <row r="80" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="N80" s="40"/>
-      <c r="O80" s="41"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="42"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="42" t="n">
+      <c r="A81" s="43" t="n">
         <f aca="false">SUM(C81:O81)-COUNTBLANK(C80:O80)+COUNTBLANK(C81:O81)</f>
         <v>0</v>
       </c>
-      <c r="B81" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="45"/>
+      <c r="B81" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="46"/>
     </row>
     <row r="82" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="39"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="41"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="42"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="42" t="n">
+      <c r="A83" s="43" t="n">
         <f aca="false">SUM(C83:O83)-COUNTBLANK(C82:O82)+COUNTBLANK(C83:O83)</f>
         <v>0</v>
       </c>
-      <c r="B83" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="45"/>
+      <c r="B83" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="46"/>
     </row>
     <row r="84" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="39"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="40"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="40"/>
-      <c r="O84" s="41"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="42"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="42" t="n">
+      <c r="A85" s="43" t="n">
         <f aca="false">SUM(C85:O85)-COUNTBLANK(C84:O84)+COUNTBLANK(C85:O85)</f>
         <v>0</v>
       </c>
-      <c r="B85" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="45"/>
+      <c r="B85" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="46"/>
     </row>
     <row r="86" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="39"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="41"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="42"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="42" t="n">
+      <c r="A87" s="43" t="n">
         <f aca="false">SUM(C87:O87)-COUNTBLANK(C86:O86)+COUNTBLANK(C87:O87)</f>
         <v>0</v>
       </c>
-      <c r="B87" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="45"/>
+      <c r="B87" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="46"/>
     </row>
     <row r="88" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="39"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="41"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="42"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="42" t="n">
+      <c r="A89" s="43" t="n">
         <f aca="false">SUM(C89:O89)-COUNTBLANK(C88:O88)+COUNTBLANK(C89:O89)</f>
         <v>0</v>
       </c>
-      <c r="B89" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="45"/>
+      <c r="B89" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="46"/>
     </row>
     <row r="90" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="39"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="40"/>
-      <c r="N90" s="40"/>
-      <c r="O90" s="41"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="42"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="42" t="n">
+      <c r="A91" s="43" t="n">
         <f aca="false">SUM(C91:O91)-COUNTBLANK(C90:O90)+COUNTBLANK(C91:O91)</f>
         <v>0</v>
       </c>
-      <c r="B91" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="44"/>
-      <c r="O91" s="45"/>
+      <c r="B91" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45"/>
+      <c r="N91" s="45"/>
+      <c r="O91" s="46"/>
     </row>
     <row r="92" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="39"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
-      <c r="N92" s="40"/>
-      <c r="O92" s="41"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="41"/>
+      <c r="N92" s="41"/>
+      <c r="O92" s="42"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="42" t="n">
+      <c r="A93" s="43" t="n">
         <f aca="false">SUM(C93:O93)-COUNTBLANK(C92:O92)+COUNTBLANK(C93:O93)</f>
         <v>0</v>
       </c>
-      <c r="B93" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="45"/>
+      <c r="B93" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="46"/>
     </row>
     <row r="94" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="39"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="41"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="42"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="42" t="n">
+      <c r="A95" s="43" t="n">
         <f aca="false">SUM(C95:O95)-COUNTBLANK(C94:O94)+COUNTBLANK(C95:O95)</f>
         <v>0</v>
       </c>
-      <c r="B95" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="45"/>
+      <c r="B95" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="45"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="46"/>
     </row>
     <row r="96" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="39"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="41"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="42"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="42" t="n">
+      <c r="A97" s="43" t="n">
         <f aca="false">SUM(C97:O97)-COUNTBLANK(C96:O96)+COUNTBLANK(C97:O97)</f>
         <v>0</v>
       </c>
-      <c r="B97" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="44"/>
-      <c r="N97" s="44"/>
-      <c r="O97" s="45"/>
+      <c r="B97" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="45"/>
+      <c r="O97" s="46"/>
     </row>
     <row r="98" customFormat="false" ht="25.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="39"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="40"/>
-      <c r="N98" s="40"/>
-      <c r="O98" s="41"/>
+      <c r="A98" s="40"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="42"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="42" t="n">
+      <c r="A99" s="43" t="n">
         <f aca="false">SUM(C99:O99)-COUNTBLANK(C98:O98)+COUNTBLANK(C99:O99)</f>
         <v>0</v>
       </c>
-      <c r="B99" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="45"/>
+      <c r="B99" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="45"/>
+      <c r="N99" s="45"/>
+      <c r="O99" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
